--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N2">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O2">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P2">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q2">
-        <v>0.6294079870888333</v>
+        <v>1.160478197307</v>
       </c>
       <c r="R2">
-        <v>3.776447922533</v>
+        <v>6.962869183842</v>
       </c>
       <c r="S2">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="T2">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N3">
         <v>28.703985</v>
       </c>
       <c r="O3">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P3">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q3">
-        <v>0.2677156894316667</v>
+        <v>0.2677156894316666</v>
       </c>
       <c r="R3">
         <v>2.409441204885</v>
       </c>
       <c r="S3">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="T3">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N4">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O4">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P4">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q4">
-        <v>0.21734927071</v>
+        <v>0.1624315896218889</v>
       </c>
       <c r="R4">
-        <v>1.95614343639</v>
+        <v>1.461884306597</v>
       </c>
       <c r="S4">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="T4">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N5">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O5">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P5">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q5">
-        <v>0.05000103753883333</v>
+        <v>0.06321323901750001</v>
       </c>
       <c r="R5">
-        <v>0.300006225233</v>
+        <v>0.379279434105</v>
       </c>
       <c r="S5">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="T5">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N6">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O6">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P6">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q6">
-        <v>0.569641542740111</v>
+        <v>0.04849553238688889</v>
       </c>
       <c r="R6">
-        <v>5.126773884661</v>
+        <v>0.436459791482</v>
       </c>
       <c r="S6">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="T6">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N7">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O7">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P7">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q7">
-        <v>0.2627582085858888</v>
+        <v>0.112372823992</v>
       </c>
       <c r="R7">
-        <v>2.364823877273</v>
+        <v>1.011355415928</v>
       </c>
       <c r="S7">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="T7">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
     </row>
   </sheetData>
